--- a/实施周数据-张磊组/11月/46周/实施周数据-张磊组-梁肖雄.xlsx
+++ b/实施周数据-张磊组/11月/46周/实施周数据-张磊组-梁肖雄.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19905" windowHeight="6480" activeTab="2"/>
+    <workbookView windowWidth="20385" windowHeight="8370" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="项目数据分析表" sheetId="5" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85">
   <si>
     <t>上海实施数据周报</t>
   </si>
@@ -265,6 +265,15 @@
   </si>
   <si>
     <t>公司值班</t>
+  </si>
+  <si>
+    <t>去走街串巷上线</t>
+  </si>
+  <si>
+    <t>去看海78上线</t>
+  </si>
+  <si>
+    <t>去看海78驻店</t>
   </si>
 </sst>
 </file>
@@ -272,10 +281,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="29">
@@ -328,20 +337,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -349,38 +344,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -394,66 +380,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Tahoma"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -469,11 +403,86 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Tahoma"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -546,7 +555,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -558,37 +597,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -606,19 +645,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -630,31 +699,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -666,49 +717,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1024,17 +1033,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1054,13 +1066,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1097,27 +1122,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1127,10 +1136,10 @@
     <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1139,138 +1148,138 @@
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="28" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="25" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="31" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="30" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="36" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="32" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
@@ -2275,7 +2284,7 @@
   <dimension ref="A1:O605"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="A2" sqref="$A2:$XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4600,7 +4609,7 @@
   <dimension ref="A1:C32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:C10"/>
+      <selection activeCell="A2" sqref="$A2:$XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1" defaultRowHeight="13.5" outlineLevelCol="2"/>
@@ -4644,19 +4653,37 @@
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="2"/>
+      <c r="A4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="3">
+        <v>43057</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="2"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="2"/>
+      <c r="A5" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="3">
+        <v>43058</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="2"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="4"/>
+      <c r="A6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="3">
+        <v>43064</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2"/>
